--- a/donations.xlsx
+++ b/donations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -80,75 +80,6 @@
   </si>
   <si>
     <t>createdAt</t>
-  </si>
-  <si>
-    <t>afc81039-1fd2-44b2-9048-329a819c21f4</t>
-  </si>
-  <si>
-    <t>Usuario 19062</t>
-  </si>
-  <si>
-    <t>usuario19062@hotmail.com</t>
-  </si>
-  <si>
-    <t>11982425569</t>
-  </si>
-  <si>
-    <t>neutral</t>
-  </si>
-  <si>
-    <t>11/08/1994</t>
-  </si>
-  <si>
-    <t>santiago</t>
-  </si>
-  <si>
-    <t>433</t>
-  </si>
-  <si>
-    <t>24A</t>
-  </si>
-  <si>
-    <t>gotham</t>
-  </si>
-  <si>
-    <t>03590-090</t>
-  </si>
-  <si>
-    <t>avenida del vino</t>
-  </si>
-  <si>
-    <t>00000019062</t>
-  </si>
-  <si>
-    <t>000019062</t>
-  </si>
-  <si>
-    <t>Sem informação ainda</t>
-  </si>
-  <si>
-    <t>canceled</t>
-  </si>
-  <si>
-    <t>cus_O6vERShiM3kz3G</t>
-  </si>
-  <si>
-    <t>e80efe90-3f67-48d9-80b0-3d777e64186b</t>
-  </si>
-  <si>
-    <t>Usuario 19063</t>
-  </si>
-  <si>
-    <t>usuario19063@hotmail.com</t>
-  </si>
-  <si>
-    <t>00000019063</t>
-  </si>
-  <si>
-    <t>000019063</t>
-  </si>
-  <si>
-    <t>cus_O6vm7gDAQKYhT8</t>
   </si>
 </sst>
 </file>
@@ -184,9 +115,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
@@ -598,142 +528,6 @@
       </c>
       <c r="W1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2">
-        <v>50</v>
-      </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
-      <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="1">
-        <v>45096.52857282407</v>
-      </c>
-      <c r="U2" t="s">
-        <v>39</v>
-      </c>
-      <c r="W2" s="1">
-        <v>45096.52857284722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q3">
-        <v>50</v>
-      </c>
-      <c r="R3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="1">
-        <v>45096.55219487268</v>
-      </c>
-      <c r="U3" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3" s="1">
-        <v>45096.55220209491</v>
       </c>
     </row>
   </sheetData>

--- a/donations.xlsx
+++ b/donations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +61,9 @@
     <t>rg</t>
   </si>
   <si>
+    <t>cpnj</t>
+  </si>
+  <si>
     <t>valuePaid</t>
   </si>
   <si>
@@ -80,6 +83,81 @@
   </si>
   <si>
     <t>createdAt</t>
+  </si>
+  <si>
+    <t>6b2b3e9b-b47b-4947-b5d5-13ea56ba5d1f</t>
+  </si>
+  <si>
+    <t>Usuario 1010.1636</t>
+  </si>
+  <si>
+    <t>user.1010.1636@hotmail.com</t>
+  </si>
+  <si>
+    <t>11982423344</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>11/08/1994</t>
+  </si>
+  <si>
+    <t>santiago</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>11B</t>
+  </si>
+  <si>
+    <t>gotham</t>
+  </si>
+  <si>
+    <t>03590-090</t>
+  </si>
+  <si>
+    <t>avenida del vino</t>
+  </si>
+  <si>
+    <t>00010101636</t>
+  </si>
+  <si>
+    <t>Não informado</t>
+  </si>
+  <si>
+    <t>00000010101636</t>
+  </si>
+  <si>
+    <t>creditcard</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>cus_OnMVHoWq9RKAvJ</t>
+  </si>
+  <si>
+    <t>d7dd1603-6c1c-4056-a2e0-92da182f699f</t>
+  </si>
+  <si>
+    <t>Usuario 1010.1642</t>
+  </si>
+  <si>
+    <t>user.1010.1642@hotmail.com</t>
+  </si>
+  <si>
+    <t>00010101642</t>
+  </si>
+  <si>
+    <t>00000010101642</t>
+  </si>
+  <si>
+    <t>refunded</t>
+  </si>
+  <si>
+    <t>cus_OnMYVUPK5cuYLI</t>
   </si>
 </sst>
 </file>
@@ -115,8 +193,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:X3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,6 +607,157 @@
       </c>
       <c r="W1" t="s">
         <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2">
+        <v>21892</v>
+      </c>
+      <c r="S2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" s="1">
+        <v>45209.81964120371</v>
+      </c>
+      <c r="V2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="1">
+        <v>45240.81964120371</v>
+      </c>
+      <c r="X2" s="1">
+        <v>45209.81957141204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3" s="1">
+        <v>45209.82168981481</v>
+      </c>
+      <c r="V3" t="s">
+        <v>48</v>
+      </c>
+      <c r="W3" s="1">
+        <v>45240.82168981481</v>
+      </c>
+      <c r="X3" s="1">
+        <v>45209.82162159722</v>
       </c>
     </row>
   </sheetData>
